--- a/Excels/Datas/__tables__.xlsx
+++ b/Excels/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA5DB0D-DAA0-44CC-9305-9CC95316EC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B881469-172E-48FC-A39C-7965FAB10141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -112,13 +112,61 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>HuluTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuluConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementFitTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementFitConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveSkillTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSkillTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSkillConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveSkillConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hulu_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_fit_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_skill_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive_skill_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +195,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,13 +217,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -182,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,6 +267,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,19 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="50.125" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -575,16 +659,70 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{D1495970-E93F-4882-9BB9-6A31AED0FB93}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{24EE8FED-DC23-40D8-A8BE-C9BEB693627C}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{38C3245B-C672-4767-B467-E2D7459B97D8}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{C1C50700-9E43-4B04-8999-E9589B0724E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Excels/Datas/__tables__.xlsx
+++ b/Excels/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B881469-172E-48FC-A39C-7965FAB10141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7AEBB4-9003-4F66-AE75-C36E31567124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>passive_skill_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleEnvironmentTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleEnvironmentConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_environment_table@config1.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +285,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,6 +733,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -722,6 +754,7 @@
     <hyperlink ref="E5" r:id="rId2" xr:uid="{24EE8FED-DC23-40D8-A8BE-C9BEB693627C}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{38C3245B-C672-4767-B467-E2D7459B97D8}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{C1C50700-9E43-4B04-8999-E9589B0724E0}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{E38E1DDE-63A1-4FB9-8EA4-20C117E855F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excels/Datas/__tables__.xlsx
+++ b/Excels/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7AEBB4-9003-4F66-AE75-C36E31567124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F089A38-03C7-4A09-B29E-F459C5C838E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="1920" windowWidth="15540" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>battle_environment_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleBuffTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleBuffConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_buff_table@config1.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -246,17 +258,87 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="2"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -271,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,13 +366,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,6 +760,7 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
@@ -677,10 +781,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="b">
@@ -692,10 +796,10 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="b">
@@ -706,10 +810,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="b">
@@ -723,7 +827,7 @@
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="b">
@@ -737,7 +841,7 @@
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="b">
@@ -746,6 +850,23 @@
       <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -755,6 +876,7 @@
     <hyperlink ref="E6" r:id="rId3" xr:uid="{38C3245B-C672-4767-B467-E2D7459B97D8}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{C1C50700-9E43-4B04-8999-E9589B0724E0}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{E38E1DDE-63A1-4FB9-8EA4-20C117E855F5}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{246E366E-528F-4532-BA29-4E66189D7D2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excels/Datas/__tables__.xlsx
+++ b/Excels/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F089A38-03C7-4A09-B29E-F459C5C838E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E871967-71D2-4309-BF77-3A2B6C1D7CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="1920" windowWidth="15540" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>element_fit_table@config1.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>active_skill_table@config1.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>battle_buff_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_table@config1.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -202,6 +202,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -210,12 +211,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -676,7 +679,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -820,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -834,35 +837,35 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">

--- a/Excels/Datas/__tables__.xlsx
+++ b/Excels/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E871967-71D2-4309-BF77-3A2B6C1D7CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485CD442-13A0-4F02-B9D4-B364812155D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,14 +122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ElementFitTable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementFitConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ActiveSkillTable</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -183,6 +175,14 @@
   </si>
   <si>
     <t>element_table@config1.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementTable</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -678,15 +678,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
     <col min="5" max="5" width="50.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
@@ -794,78 +794,78 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
